--- a/data/trans_camb/P1435-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>-6.83765558319966</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.750078813283991</v>
+        <v>-2.750078813283992</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.971974787074564</v>
+        <v>-6.780772170979908</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.889451458856295</v>
+        <v>-8.876324478319344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.275564869161609</v>
+        <v>-5.064324869712275</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.743269739162349</v>
+        <v>-2.483999330428312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.115112966642144</v>
+        <v>-4.935889015015543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.177425629945371</v>
+        <v>-0.1869265906474243</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-0.8254711945286424</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3320013439441411</v>
+        <v>-0.3320013439441412</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6952526256039254</v>
+        <v>-0.7060451200014856</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.897089738709712</v>
+        <v>-0.8982879908114957</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5523515391099144</v>
+        <v>-0.5430769994804674</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3522711108739012</v>
+        <v>-0.3547437412907726</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.7007983958795567</v>
+        <v>-0.7082392663920062</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.003104277255084534</v>
+        <v>-0.02275168902442849</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.896970798364287</v>
+        <v>-4.073392347604119</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.954560000200995</v>
+        <v>-5.721297526159255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.73182499732115</v>
+        <v>-3.808196472899441</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1476368849831577</v>
+        <v>-0.1908564768766708</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.419680306866708</v>
+        <v>-2.33169110502431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.001495101191228191</v>
+        <v>-0.1106457700603245</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5526187535991074</v>
+        <v>-0.5461972866428887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8110419556765142</v>
+        <v>-0.7929323505912634</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5124207356038355</v>
+        <v>-0.5256491695052324</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02322868153329327</v>
+        <v>-0.03094395064756538</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4742910828410281</v>
+        <v>-0.4453203905045533</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0003055885292423629</v>
+        <v>-0.005390565919163376</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-4.669682718623874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.419004947948912</v>
+        <v>-1.419004947948914</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.11396651685045</v>
+        <v>-5.0250131014043</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.462207522115248</v>
+        <v>-6.564074171991502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.512448479170806</v>
+        <v>-3.656438127203485</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.058310435763613</v>
+        <v>-1.058098806747409</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.593265676213914</v>
+        <v>-2.756143120728727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8989038816642909</v>
+        <v>0.7904444506177268</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.6904971019378315</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2098255627275067</v>
+        <v>-0.2098255627275069</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6463458557725906</v>
+        <v>-0.6536155241281671</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8228725910535281</v>
+        <v>-0.8239671027329439</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4511214313802531</v>
+        <v>-0.4538552637419181</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1835269933508046</v>
+        <v>-0.1740193861918369</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4369512065860245</v>
+        <v>-0.4730237881729644</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1785669246243026</v>
+        <v>0.1637064288264912</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.79721546947924</v>
+        <v>-13.49165679292822</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.62532637157057</v>
+        <v>-14.36347814235011</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.697514260916366</v>
+        <v>-7.743443609185761</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.535420635011038</v>
+        <v>-5.218486031047257</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.093120433075832</v>
+        <v>-6.724655719592223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.221074614463252</v>
+        <v>0.7081011176735938</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8492487651572874</v>
+        <v>-0.8426863896388962</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9132576435972991</v>
+        <v>-0.9119329114594945</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4749991955461075</v>
+        <v>-0.468706729676967</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4953975958910949</v>
+        <v>-0.4919088345535882</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.6711786153711408</v>
+        <v>-0.6586289640811621</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02368262765870109</v>
+        <v>0.07686394065476358</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>-5.786570666012494</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.525237052791882</v>
+        <v>-1.525237052791883</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.897947186460036</v>
+        <v>-4.922009786815042</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.854486707446799</v>
+        <v>-6.803007548329543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.844635755938525</v>
+        <v>-2.701586610233821</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.677661969620607</v>
+        <v>-2.711974902968841</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.77237901624364</v>
+        <v>-4.690132027529194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3594521870479828</v>
+        <v>-0.3062731919754094</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>-0.7545443439775958</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1988844615980859</v>
+        <v>-0.198884461598086</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5906536327347063</v>
+        <v>-0.5949274590039557</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8205662278130462</v>
+        <v>-0.8123122836520631</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3360159039214629</v>
+        <v>-0.3203038872852973</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3766871844469847</v>
+        <v>-0.3901647815153568</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.6852987941522215</v>
+        <v>-0.6738693018995257</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04942255065221055</v>
+        <v>-0.04309385503560478</v>
       </c>
     </row>
     <row r="34">
